--- a/resources/experiment 1/predictions/single/RandomForestRegressor/incidence/Fallo Cardiaco (INC).xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/incidence/Fallo Cardiaco (INC).xlsx
@@ -452,783 +452,783 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10.06650941715989</v>
+        <v>9.623814262023211</v>
       </c>
       <c r="B2" t="n">
-        <v>0.139718590879367</v>
+        <v>0.08</v>
       </c>
       <c r="C2" t="n">
-        <v>35.59657351647321</v>
+        <v>34.84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.599027311511508</v>
+        <v>2.676119402985066</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>11.16469682539683</v>
+        <v>11.46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.636967541951417</v>
+        <v>3.656451077943601</v>
       </c>
       <c r="B4" t="n">
-        <v>0.001037037037037037</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>14.12337056277056</v>
+        <v>14.61333333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.716640848996687</v>
+        <v>2.947197346600325</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="C5" t="n">
-        <v>10.33861847041847</v>
+        <v>11.69333333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.577781558032106</v>
+        <v>6.216285240464338</v>
       </c>
       <c r="B6" t="n">
-        <v>0.08550904643458815</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="C6" t="n">
-        <v>24.15190303030303</v>
+        <v>22.79333333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9.402355160558225</v>
+        <v>9.606733001658364</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1072691553605511</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>35.66092034632033</v>
+        <v>35.59333333333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12.77930009493103</v>
+        <v>12.56046434494194</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2092850226599448</v>
+        <v>0.2400000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>47.9669111630464</v>
+        <v>47.50666666666668</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.93508755028692</v>
+        <v>5.828723051409612</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03096096040755483</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="C9" t="n">
-        <v>21.68263376623376</v>
+        <v>21.18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12.92907820018233</v>
+        <v>12.45243781094526</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1493621064085895</v>
+        <v>0.2066666666666667</v>
       </c>
       <c r="C10" t="n">
-        <v>47.83633259953905</v>
+        <v>45.74666666666668</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11.6257635793159</v>
+        <v>11.64092868988391</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2333777777777774</v>
+        <v>0.2600000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>40.72605521367521</v>
+        <v>41.57333333333334</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8.64558620691705</v>
+        <v>8.601459369817571</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2708843711843708</v>
+        <v>0.3133333333333335</v>
       </c>
       <c r="C12" t="n">
-        <v>28.2698603174603</v>
+        <v>28.79333333333334</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.43151463191731</v>
+        <v>12.66971807628523</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3613777777777774</v>
+        <v>0.2733333333333334</v>
       </c>
       <c r="C13" t="n">
-        <v>46.23403396760617</v>
+        <v>45.46666666666665</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11.85771187638174</v>
+        <v>11.78885572139303</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2639296343096281</v>
+        <v>0.2600000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>43.39062400765729</v>
+        <v>43.87333333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.51354400583157</v>
+        <v>3.985737976782742</v>
       </c>
       <c r="B15" t="n">
-        <v>0.003333333333333334</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>14.71533333333333</v>
+        <v>15.58666666666666</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.573672105295786</v>
+        <v>6.569485903814253</v>
       </c>
       <c r="B16" t="n">
-        <v>0.04629234111261976</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="C16" t="n">
-        <v>24.01420432900433</v>
+        <v>24.42666666666667</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8.504355785570919</v>
+        <v>7.831575456053065</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1041799964034722</v>
+        <v>0.09333333333333335</v>
       </c>
       <c r="C17" t="n">
-        <v>28.52775115995114</v>
+        <v>27.52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.636967541951417</v>
+        <v>3.385140961857366</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0004444444444444444</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>15.34256666666667</v>
+        <v>15.08666666666667</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11.90284607237422</v>
+        <v>11.66222222222222</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4194444444444437</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C19" t="n">
-        <v>40.9970761904762</v>
+        <v>40.96666666666666</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.684360228173463</v>
+        <v>6.69339966832503</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02419566462438316</v>
+        <v>0.08</v>
       </c>
       <c r="C20" t="n">
-        <v>23.00972063492064</v>
+        <v>24.34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.75131829950038</v>
+        <v>4.80487562189054</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03099352226720648</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="C21" t="n">
-        <v>17.34533333333334</v>
+        <v>17.54666666666666</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>12.75661613236193</v>
+        <v>12.93724709784411</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2452633824300267</v>
+        <v>0.2200000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>47.51587268086296</v>
+        <v>48.4866666666667</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3.589162870496968</v>
+        <v>3.745870646766159</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0009333333333333334</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="C23" t="n">
-        <v>16.40657142857144</v>
+        <v>16.33333333333333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6.630709205509006</v>
+        <v>6.797910447761182</v>
       </c>
       <c r="B24" t="n">
-        <v>0.07726623551886705</v>
+        <v>0.05333333333333333</v>
       </c>
       <c r="C24" t="n">
-        <v>23.33462972582972</v>
+        <v>24.46666666666667</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.312674857248296</v>
+        <v>5.44169154228855</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05303718571876467</v>
+        <v>0.05999999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>20.81900104405399</v>
+        <v>20.25999999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4.713857271308009</v>
+        <v>4.779900497512427</v>
       </c>
       <c r="B26" t="n">
-        <v>0.04775608465608466</v>
+        <v>0.02</v>
       </c>
       <c r="C26" t="n">
-        <v>19.34613333333333</v>
+        <v>18.98666666666666</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>12.55211129534272</v>
+        <v>12.7678606965174</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4114999999999992</v>
+        <v>0.3400000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>45.70672820512821</v>
+        <v>45.22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>9.406232796377589</v>
+        <v>9.268888888888874</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1475380948544158</v>
+        <v>0.1800000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>35.33770634855341</v>
+        <v>34.88666666666666</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.103013968511235</v>
+        <v>4.20590381426201</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>16.1672380952381</v>
+        <v>17.40666666666667</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>8.433060838736463</v>
+        <v>8.089883913764499</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1782887934764018</v>
+        <v>0.2600000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>29.94660079365079</v>
+        <v>29.85333333333333</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>11.86506919579953</v>
+        <v>12.07824212271973</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01566870825310454</v>
+        <v>0.1</v>
       </c>
       <c r="C31" t="n">
-        <v>44.37170295554119</v>
+        <v>44.70666666666667</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>12.26117176009904</v>
+        <v>11.56673300165837</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2518948865435115</v>
+        <v>0.2200000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>46.07762033072771</v>
+        <v>43.94666666666668</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>11.90630078369701</v>
+        <v>11.78822553897181</v>
       </c>
       <c r="B33" t="n">
-        <v>0.2588695937655776</v>
+        <v>0.2800000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>43.31019370462698</v>
+        <v>43.61999999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>10.62682649249333</v>
+        <v>11.38126036484244</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3583954248366007</v>
+        <v>0.3266666666666668</v>
       </c>
       <c r="C34" t="n">
-        <v>43.53999999999999</v>
+        <v>42.02</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6.675905359658892</v>
+        <v>6.83830845771143</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1079456449982765</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="C35" t="n">
-        <v>24.26556623376624</v>
+        <v>24.75999999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>9.227427697694946</v>
+        <v>9.410248756218895</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1176220233293932</v>
+        <v>0.1266666666666667</v>
       </c>
       <c r="C36" t="n">
-        <v>34.58816796536796</v>
+        <v>34.84666666666667</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5.029610730562959</v>
+        <v>4.692504145936973</v>
       </c>
       <c r="B37" t="n">
-        <v>0.002208475108246275</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="C37" t="n">
-        <v>18.55333333333333</v>
+        <v>18.59333333333333</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>11.88507631333331</v>
+        <v>11.37698175787728</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1821901436046757</v>
+        <v>0.1533333333333334</v>
       </c>
       <c r="C38" t="n">
-        <v>39.27701858141858</v>
+        <v>38.96666666666666</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>9.306595016978587</v>
+        <v>9.134726368159191</v>
       </c>
       <c r="B39" t="n">
-        <v>0.238106593406593</v>
+        <v>0.2133333333333334</v>
       </c>
       <c r="C39" t="n">
-        <v>33.33999999999997</v>
+        <v>33.17333333333332</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3.768978628653549</v>
+        <v>3.59728026533995</v>
       </c>
       <c r="B40" t="n">
-        <v>0.008412698412698413</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>14.01269090909091</v>
+        <v>13.86666666666666</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>9.27522401237756</v>
+        <v>8.922354892205625</v>
       </c>
       <c r="B41" t="n">
-        <v>0.07666243386243381</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="C41" t="n">
-        <v>33.95768297258299</v>
+        <v>33.84666666666666</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>11.42808476820031</v>
+        <v>11.65273631840795</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2625959212991567</v>
+        <v>0.3200000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>41.88345697766285</v>
+        <v>44.03333333333333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>8.433060838736463</v>
+        <v>8.278872305140951</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1539896569473325</v>
+        <v>0.2466666666666668</v>
       </c>
       <c r="C43" t="n">
-        <v>29.97332852474323</v>
+        <v>30.31333333333333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>10.50193513035577</v>
+        <v>10.18162520729684</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1648921654142791</v>
+        <v>0.2066666666666667</v>
       </c>
       <c r="C44" t="n">
-        <v>39.84987852285657</v>
+        <v>39.10000000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>11.38694958460525</v>
+        <v>11.21933665008291</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1170178979960629</v>
+        <v>0.1200000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>40.97709523809526</v>
+        <v>42.05333333333333</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>11.65805091897777</v>
+        <v>11.83323383084576</v>
       </c>
       <c r="B46" t="n">
-        <v>0.03198413356852987</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="C46" t="n">
-        <v>45.03589758313581</v>
+        <v>46.16666666666666</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>12.90848104765732</v>
+        <v>12.90567164179104</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1679214777871742</v>
+        <v>0.2733333333333334</v>
       </c>
       <c r="C47" t="n">
-        <v>45.87057326138773</v>
+        <v>45.25333333333333</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>8.588619461695789</v>
+        <v>8.551608623548908</v>
       </c>
       <c r="B48" t="n">
-        <v>0.07419574176921766</v>
+        <v>0.1466666666666666</v>
       </c>
       <c r="C48" t="n">
-        <v>31.35885592185591</v>
+        <v>31.95333333333333</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3.713005302090669</v>
+        <v>3.789751243781078</v>
       </c>
       <c r="B49" t="n">
-        <v>0.005303703703703705</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="C49" t="n">
-        <v>14.3808051948052</v>
+        <v>14.13333333333334</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5.147294691709607</v>
+        <v>5.205538971807621</v>
       </c>
       <c r="B50" t="n">
-        <v>0.002522482348569305</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="C50" t="n">
-        <v>18.72</v>
+        <v>19.17333333333334</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2.618413985202659</v>
+        <v>2.730878938640122</v>
       </c>
       <c r="B51" t="n">
-        <v>0.005333333333333334</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="C51" t="n">
-        <v>11.37163650793651</v>
+        <v>11.54</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>11.54183612906895</v>
+        <v>11.35333333333333</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1734496365201712</v>
+        <v>0.2</v>
       </c>
       <c r="C52" t="n">
-        <v>43.82438063730215</v>
+        <v>42.34000000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>9.165364595632456</v>
+        <v>8.006368159203971</v>
       </c>
       <c r="B53" t="n">
-        <v>0.07838303638674478</v>
+        <v>0.04666666666666667</v>
       </c>
       <c r="C53" t="n">
-        <v>32.68919999999997</v>
+        <v>29.48666666666667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3.417360011774706</v>
+        <v>3.719303482587054</v>
       </c>
       <c r="B54" t="n">
-        <v>0.006000000000000001</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="C54" t="n">
-        <v>13.88986666666667</v>
+        <v>14.83999999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4.713857271308009</v>
+        <v>4.725671641791034</v>
       </c>
       <c r="B55" t="n">
-        <v>0.04497659105027527</v>
+        <v>0.04666666666666666</v>
       </c>
       <c r="C55" t="n">
-        <v>17.797</v>
+        <v>18.49333333333333</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>11.58558649680896</v>
+        <v>11.33532338308457</v>
       </c>
       <c r="B56" t="n">
-        <v>0.2414661960221807</v>
+        <v>0.2200000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>43.31566356809685</v>
+        <v>43.34</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>12.37831313534478</v>
+        <v>11.8751575456053</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2470544869932655</v>
+        <v>0.1933333333333334</v>
       </c>
       <c r="C57" t="n">
-        <v>46.28083797778654</v>
+        <v>44.68666666666668</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5.012396800214701</v>
+        <v>4.907396351575446</v>
       </c>
       <c r="B58" t="n">
-        <v>0.02369195089172207</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C58" t="n">
-        <v>19.94586666666667</v>
+        <v>19.74666666666667</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>11.01289480665434</v>
+        <v>11.27333333333332</v>
       </c>
       <c r="B59" t="n">
-        <v>0.2870858488160534</v>
+        <v>0.1933333333333334</v>
       </c>
       <c r="C59" t="n">
-        <v>39.02155683986121</v>
+        <v>39.16666666666666</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3.725088158086171</v>
+        <v>4.288026533996672</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0002666666666666667</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>17.612</v>
+        <v>17.66666666666666</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>11.92640277374676</v>
+        <v>12.45615257048092</v>
       </c>
       <c r="B61" t="n">
-        <v>0.2822013875434705</v>
+        <v>0.3600000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>45.44861740612328</v>
+        <v>46.17999999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>11.42808476820031</v>
+        <v>11.59535655058042</v>
       </c>
       <c r="B62" t="n">
-        <v>0.2424215509944767</v>
+        <v>0.2066666666666667</v>
       </c>
       <c r="C62" t="n">
-        <v>40.97987743589744</v>
+        <v>42.83333333333334</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>12.2963949938578</v>
+        <v>13.16464344941957</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4013333333333324</v>
+        <v>0.3800000000000002</v>
       </c>
       <c r="C63" t="n">
-        <v>49.01348282828283</v>
+        <v>51.25999999999998</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3.718859302364778</v>
+        <v>3.981393034825859</v>
       </c>
       <c r="B64" t="n">
-        <v>0.001333333333333334</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>16.36457142857144</v>
+        <v>16.15999999999999</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>12.65490409650967</v>
+        <v>12.56391376451077</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5281240019240019</v>
+        <v>0.38</v>
       </c>
       <c r="C65" t="n">
-        <v>46.96824048601103</v>
+        <v>45.76000000000001</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>10.65416913175672</v>
+        <v>10.54248756218904</v>
       </c>
       <c r="B66" t="n">
-        <v>0.3810555555555548</v>
+        <v>0.3266666666666667</v>
       </c>
       <c r="C66" t="n">
-        <v>35.96241478696741</v>
+        <v>36.88666666666666</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>10.27877856960524</v>
+        <v>10.41860696517412</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1642929196378388</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C67" t="n">
-        <v>40.07922015937282</v>
+        <v>40.23999999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4.652557634571059</v>
+        <v>4.57014925373133</v>
       </c>
       <c r="B68" t="n">
-        <v>0.00408582995951417</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="C68" t="n">
-        <v>17.43133333333334</v>
+        <v>17.61333333333333</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>12.77056156149517</v>
+        <v>12.29532338308457</v>
       </c>
       <c r="B69" t="n">
-        <v>0.2595915881142214</v>
+        <v>0.2533333333333335</v>
       </c>
       <c r="C69" t="n">
-        <v>46.54100455290323</v>
+        <v>46.96666666666668</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>3.780941196765371</v>
+        <v>3.678905472636804</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01544973544973545</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="C70" t="n">
-        <v>14.16662929292929</v>
+        <v>14.06666666666666</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>7.098146771249747</v>
+        <v>7.322122719734653</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1671479189668711</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="C71" t="n">
-        <v>27.69877412358883</v>
+        <v>28.07333333333333</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>8.004665869637018</v>
+        <v>7.886368159203971</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1333983995082096</v>
+        <v>0.1</v>
       </c>
       <c r="C72" t="n">
-        <v>29.04373333333333</v>
+        <v>28.74666666666667</v>
       </c>
     </row>
   </sheetData>
